--- a/document/ページャー処理_PCL一覧_v2.xlsx
+++ b/document/ページャー処理_PCL一覧_v2.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verne.zhong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verne.zhong/IdeaProjects/nextblog/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A28FEE6-15C1-0F46-84DD-EE84C36B07D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6485E43D-242A-C44E-ABA9-5AE45C233BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="24200" windowHeight="13220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="760" windowWidth="27040" windowHeight="15680" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="294">
   <si>
     <t>番号</t>
   </si>
@@ -203,490 +205,708 @@
     <t>以下は、Excel形式で記述したページャー処理メソッドの単体テストケースです。各テストケースは入力条件と期待される結果を示しています。</t>
   </si>
   <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>テストケースID</t>
+  </si>
+  <si>
+    <t>テスト内容</t>
+  </si>
+  <si>
+    <t>期待結果</t>
+  </si>
+  <si>
+    <t>PAGE-TC-001</t>
+  </si>
+  <si>
+    <t>1ページのみの場合</t>
+  </si>
+  <si>
+    <t>currentPage=1, totalPages=1</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>現在ページのみ表示され、リンクは表示されない</t>
+  </si>
+  <si>
+    <t>PAGE-TC-002</t>
+  </si>
+  <si>
+    <t>2ページ中の1ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=1, totalPages=2</t>
+  </si>
+  <si>
+    <t>[1] 2 &gt;</t>
+  </si>
+  <si>
+    <t>現在ページ、次ページ、次へリンクのみ表示</t>
+  </si>
+  <si>
+    <t>PAGE-TC-003</t>
+  </si>
+  <si>
+    <t>2ページ中の2ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=2, totalPages=2</t>
+  </si>
+  <si>
+    <t>&lt; 1 [2]</t>
+  </si>
+  <si>
+    <t>前へリンク、前ページ、現在ページのみ表示</t>
+  </si>
+  <si>
+    <t>PAGE-TC-004</t>
+  </si>
+  <si>
+    <t>3ページ中の1ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=1, totalPages=3</t>
+  </si>
+  <si>
+    <t>[1] 2 3 &gt;</t>
+  </si>
+  <si>
+    <t>現在ページ、次の2ページ、次へリンクのみ表示</t>
+  </si>
+  <si>
+    <t>PAGE-TC-005</t>
+  </si>
+  <si>
+    <t>3ページ中の2ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=2, totalPages=3</t>
+  </si>
+  <si>
+    <t>&lt; 1 [2] 3 &gt;</t>
+  </si>
+  <si>
+    <t>前へリンク、全ページ番号、次へリンク表示</t>
+  </si>
+  <si>
+    <t>PAGE-TC-006</t>
+  </si>
+  <si>
+    <t>3ページ中の3ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=3, totalPages=3</t>
+  </si>
+  <si>
+    <t>&lt; 1 2 [3]</t>
+  </si>
+  <si>
+    <t>前へリンク、前の2ページ、現在ページのみ表示</t>
+  </si>
+  <si>
+    <t>PAGE-TC-007</t>
+  </si>
+  <si>
+    <t>7ページ中の1ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=1, totalPages=7</t>
+  </si>
+  <si>
+    <t>[1] 2 3 4 5 6 7 &gt;</t>
+  </si>
+  <si>
+    <t>現在ページ、次の6ページ、次へリンク表示</t>
+  </si>
+  <si>
+    <t>PAGE-TC-008</t>
+  </si>
+  <si>
+    <t>7ページ中の4ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=4, totalPages=7</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>&lt; &lt; 1 2 3 [4] 5 6 7 &gt;`</t>
+  </si>
+  <si>
+    <t>PAGE-TC-009</t>
+  </si>
+  <si>
+    <t>7ページ中の7ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=7, totalPages=7</t>
+  </si>
+  <si>
+    <t>&lt; &lt; 1 2 3 4 5 6 [7]`</t>
+  </si>
+  <si>
+    <t>PAGE-TC-010</t>
+  </si>
+  <si>
+    <t>8ページ中の1ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=1, totalPages=8</t>
+  </si>
+  <si>
+    <t>[1] 2 3 4 5 6 7 ... &gt;</t>
+  </si>
+  <si>
+    <t>現在ページ、次の6ページ、省略記号、次へリンク表示</t>
+  </si>
+  <si>
+    <t>PAGE-TC-011</t>
+  </si>
+  <si>
+    <t>8ページ中の4ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=4, totalPages=8</t>
+  </si>
+  <si>
+    <t>&lt; &lt; 1 2 3 [4] 5 6 7 8 &gt;`</t>
+  </si>
+  <si>
+    <t>PAGE-TC-012</t>
+  </si>
+  <si>
+    <t>8ページ中の5ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=5, totalPages=8</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 2 3 4 [5] 6 7 8 &gt;`</t>
+  </si>
+  <si>
+    <t>PAGE-TC-013</t>
+  </si>
+  <si>
+    <t>8ページ中の8ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=8, totalPages=8</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 5 6 7 [8]`</t>
+  </si>
+  <si>
+    <t>PAGE-TC-014</t>
+  </si>
+  <si>
+    <t>10ページ中の1ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=1, totalPages=10</t>
+  </si>
+  <si>
+    <t>`[1] 2 3 4 5 6 7 ... &gt; &gt;</t>
+  </si>
+  <si>
+    <t>PAGE-TC-015</t>
+  </si>
+  <si>
+    <t>10ページ中の5ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=5, totalPages=10</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 2 3 4 [5] 6 7 8 ... &gt; &gt;</t>
+  </si>
+  <si>
+    <t>PAGE-TC-016</t>
+  </si>
+  <si>
+    <t>10ページ中の8ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=8, totalPages=10</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 5 6 7 [8] 9 10 &gt; &gt;</t>
+  </si>
+  <si>
+    <t>PAGE-TC-017</t>
+  </si>
+  <si>
+    <t>10ページ中の10ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=10, totalPages=10</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 7 8 9 [10]`</t>
+  </si>
+  <si>
+    <t>PAGE-TC-018</t>
+  </si>
+  <si>
+    <t>20ページ中の1ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=1, totalPages=20</t>
+  </si>
+  <si>
+    <t>PAGE-TC-019</t>
+  </si>
+  <si>
+    <t>20ページ中の7ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=7, totalPages=20</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 4 5 6 [7] 8 9 10 ... &gt; &gt;</t>
+  </si>
+  <si>
+    <t>PAGE-TC-020</t>
+  </si>
+  <si>
+    <t>20ページ中の15ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=15, totalPages=20</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 12 13 14 [15] 16 17 18 ... &gt; &gt;</t>
+  </si>
+  <si>
+    <t>PAGE-TC-021</t>
+  </si>
+  <si>
+    <t>20ページ中の18ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=18, totalPages=20</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 15 16 17 [18] 19 20 &gt; &gt;</t>
+  </si>
+  <si>
+    <t>PAGE-TC-022</t>
+  </si>
+  <si>
+    <t>20ページ中の20ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=20, totalPages=20</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 17 18 19 [20]`</t>
+  </si>
+  <si>
+    <t>判定条件別テスト</t>
+  </si>
+  <si>
+    <t>以下の表は、仕様書に記載されている各判定条件に対するテスト結果を示しています。</t>
+  </si>
+  <si>
+    <t>判定条件</t>
+  </si>
+  <si>
+    <t>テストケースNo</t>
+  </si>
+  <si>
+    <t>テストケース条件</t>
+  </si>
+  <si>
+    <t>期待される要素</t>
+  </si>
+  <si>
+    <t>判定</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;2</t>
+  </si>
+  <si>
+    <t>currentPage=3, totalPages=10</t>
+  </si>
+  <si>
+    <t>最初ページのリンク「|&lt;」が表示される</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;1</t>
+  </si>
+  <si>
+    <t>前のページのリンク「&lt;」が表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;4 &amp;&amp; 総ページ数&gt;7</t>
+  </si>
+  <si>
+    <t>前方に「...」が表示される</t>
+  </si>
+  <si>
+    <t>総ページ数-ページ番号&lt;1 &amp;&amp; ページ番号&gt;=7</t>
+  </si>
+  <si>
+    <t>「ページ番号-6」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>総ページ数-ページ番号&lt;2 &amp;&amp; ページ番号&gt;=6</t>
+  </si>
+  <si>
+    <t>currentPage=19, totalPages=20</t>
+  </si>
+  <si>
+    <t>「ページ番号-5」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>総ページ数-ページ番号&lt;3 &amp;&amp; ページ番号&gt;=5</t>
+  </si>
+  <si>
+    <t>「ページ番号-4」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;3</t>
+  </si>
+  <si>
+    <t>「ページ番号-3」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>currentPage=3, totalPages=5</t>
+  </si>
+  <si>
+    <t>「ページ番号-2」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>「ページ番号-1」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>条件なし</t>
+  </si>
+  <si>
+    <t>すべてのケース</t>
+  </si>
+  <si>
+    <t>「ページ番号」のラベルが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+1&lt;=総ページ数</t>
+  </si>
+  <si>
+    <t>「ページ番号+1」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+2&lt;=総ページ数</t>
+  </si>
+  <si>
+    <t>「ページ番号+2」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+3&lt;=総ページ数</t>
+  </si>
+  <si>
+    <t>currentPage=1, totalPages=5</t>
+  </si>
+  <si>
+    <t>「ページ番号+3」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+4&lt;=総ページ数 &amp;&amp; ページ番号&lt;=3</t>
+  </si>
+  <si>
+    <t>「ページ番号+4」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+5&lt;=総ページ数 &amp;&amp; ページ番号&lt;=2</t>
+  </si>
+  <si>
+    <t>currentPage=2, totalPages=10</t>
+  </si>
+  <si>
+    <t>「ページ番号+5」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+6&lt;=総ページ数 &amp;&amp; ページ番号&lt;=1</t>
+  </si>
+  <si>
+    <t>「ページ番号+6」のリンクが表示される</t>
+  </si>
+  <si>
+    <t>後方に「...」が表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&lt;総ページ数</t>
+  </si>
+  <si>
+    <t>次のページのリンク「&gt;」が表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&lt;総ページ数-1</t>
+  </si>
+  <si>
+    <t>最後ページのリンク「&gt;|」が表示される</t>
+  </si>
+  <si>
+    <t>テスト実施環境</t>
+  </si>
+  <si>
+    <t>項目</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>テスト実施日</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>テスト実施者</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>検証環境</t>
+  </si>
+  <si>
+    <t>Windows 10 / Google Chrome 最新版</t>
+  </si>
+  <si>
+    <t>テスト結果</t>
+  </si>
+  <si>
+    <t>□合格　□不合格</t>
+  </si>
+  <si>
+    <t>備考</t>
+  </si>
+  <si>
     <t>テスト仕様書</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>テストケースID</t>
-  </si>
-  <si>
-    <t>テスト内容</t>
-  </si>
-  <si>
-    <t>期待結果</t>
-  </si>
-  <si>
-    <t>PAGE-TC-001</t>
-  </si>
-  <si>
-    <t>1ページのみの場合</t>
-  </si>
-  <si>
-    <t>currentPage=1, totalPages=1</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>現在ページのみ表示され、リンクは表示されない</t>
-  </si>
-  <si>
-    <t>PAGE-TC-002</t>
-  </si>
-  <si>
-    <t>2ページ中の1ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=1, totalPages=2</t>
-  </si>
-  <si>
-    <t>[1] 2 &gt;</t>
-  </si>
-  <si>
-    <t>現在ページ、次ページ、次へリンクのみ表示</t>
-  </si>
-  <si>
-    <t>PAGE-TC-003</t>
-  </si>
-  <si>
-    <t>2ページ中の2ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=2, totalPages=2</t>
-  </si>
-  <si>
-    <t>&lt; 1 [2]</t>
-  </si>
-  <si>
-    <t>前へリンク、前ページ、現在ページのみ表示</t>
-  </si>
-  <si>
-    <t>PAGE-TC-004</t>
-  </si>
-  <si>
-    <t>3ページ中の1ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=1, totalPages=3</t>
-  </si>
-  <si>
-    <t>[1] 2 3 &gt;</t>
-  </si>
-  <si>
-    <t>現在ページ、次の2ページ、次へリンクのみ表示</t>
-  </si>
-  <si>
-    <t>PAGE-TC-005</t>
-  </si>
-  <si>
-    <t>3ページ中の2ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=2, totalPages=3</t>
-  </si>
-  <si>
-    <t>&lt; 1 [2] 3 &gt;</t>
-  </si>
-  <si>
-    <t>前へリンク、全ページ番号、次へリンク表示</t>
-  </si>
-  <si>
-    <t>PAGE-TC-006</t>
-  </si>
-  <si>
-    <t>3ページ中の3ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=3, totalPages=3</t>
-  </si>
-  <si>
-    <t>&lt; 1 2 [3]</t>
-  </si>
-  <si>
-    <t>前へリンク、前の2ページ、現在ページのみ表示</t>
-  </si>
-  <si>
-    <t>PAGE-TC-007</t>
-  </si>
-  <si>
-    <t>7ページ中の1ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=1, totalPages=7</t>
-  </si>
-  <si>
-    <t>[1] 2 3 4 5 6 7 &gt;</t>
-  </si>
-  <si>
-    <t>現在ページ、次の6ページ、次へリンク表示</t>
-  </si>
-  <si>
-    <t>PAGE-TC-008</t>
-  </si>
-  <si>
-    <t>7ページ中の4ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=4, totalPages=7</t>
-  </si>
-  <si>
-    <t>`</t>
-  </si>
-  <si>
-    <t>&lt; &lt; 1 2 3 [4] 5 6 7 &gt;`</t>
-  </si>
-  <si>
-    <t>PAGE-TC-009</t>
-  </si>
-  <si>
-    <t>7ページ中の7ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=7, totalPages=7</t>
-  </si>
-  <si>
-    <t>&lt; &lt; 1 2 3 4 5 6 [7]`</t>
-  </si>
-  <si>
-    <t>PAGE-TC-010</t>
-  </si>
-  <si>
-    <t>8ページ中の1ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=1, totalPages=8</t>
-  </si>
-  <si>
-    <t>[1] 2 3 4 5 6 7 ... &gt;</t>
-  </si>
-  <si>
-    <t>現在ページ、次の6ページ、省略記号、次へリンク表示</t>
-  </si>
-  <si>
-    <t>PAGE-TC-011</t>
-  </si>
-  <si>
-    <t>8ページ中の4ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=4, totalPages=8</t>
-  </si>
-  <si>
-    <t>&lt; &lt; 1 2 3 [4] 5 6 7 8 &gt;`</t>
-  </si>
-  <si>
-    <t>PAGE-TC-012</t>
-  </si>
-  <si>
-    <t>8ページ中の5ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=5, totalPages=8</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 2 3 4 [5] 6 7 8 &gt;`</t>
-  </si>
-  <si>
-    <t>PAGE-TC-013</t>
-  </si>
-  <si>
-    <t>8ページ中の8ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=8, totalPages=8</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 5 6 7 [8]`</t>
-  </si>
-  <si>
-    <t>PAGE-TC-014</t>
-  </si>
-  <si>
-    <t>10ページ中の1ページ目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ページャー処理メソッド単体テストケース（修正版）</t>
+  </si>
+  <si>
+    <t>1. テスト仕様書</t>
+  </si>
+  <si>
+    <t>10ページ中の3ページ目</t>
+  </si>
+  <si>
+    <t>&lt; &lt; 1 2 [3] 4 5 6 7 ... &gt; &gt;</t>
+  </si>
+  <si>
+    <t>10ページ中の4ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=4, totalPages=10</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 1 2 3 [4] 5 6 7 ... &gt; &gt;</t>
+  </si>
+  <si>
+    <t>10ページ中の7ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=7, totalPages=10</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 4 5 6 [7] 8 9 10 &gt; &gt;</t>
+  </si>
+  <si>
+    <t>10ページ中の9ページ目</t>
+  </si>
+  <si>
+    <t>currentPage=9, totalPages=10</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 6 7 8 [9] 10 &gt;`</t>
+  </si>
+  <si>
+    <t>20ページ中の19ページ目</t>
+  </si>
+  <si>
+    <t>&lt; &lt; ... 16 17 18 [19] 20 &gt;`</t>
+  </si>
+  <si>
+    <t>2. 判定条件別テスト（19の条件に対応）</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;2：最初ページのリンク「|&lt;」を作成</t>
+  </si>
+  <si>
+    <t>「|&lt;」が表示される</t>
+  </si>
+  <si>
+    <t>□</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;1：前のページのリンク「&lt;」を作成</t>
+  </si>
+  <si>
+    <t>「&lt;」が表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;4 &amp;&amp; 総ページ数&gt;7：「...」を作成</t>
+  </si>
+  <si>
+    <t>総ページ数-ページ番号&lt;1 &amp;&amp; ページ番号&gt;=7：「ページ番号-6」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「13」（=19-6）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>総ページ数-ページ番号&lt;2 &amp;&amp; ページ番号&gt;=6：「ページ番号-5」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「14」（=19-5）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>総ページ数-ページ番号&lt;3 &amp;&amp; ページ番号&gt;=5：「ページ番号-4」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「14」（=18-4）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;3：「ページ番号-3」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「1」（=4-3）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;2：「ページ番号-2」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「1」（=3-2）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&gt;1：「ページ番号-1」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「1」（=2-1）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>条件なし：「ページ番号」のラベルを作成</t>
+  </si>
+  <si>
+    <t>「1」（現在ページ）のラベルが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+1&lt;=総ページ数：「ページ番号+1」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「3」（=2+1）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+2&lt;=総ページ数：「ページ番号+2」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「3」（=1+2）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+3&lt;=総ページ数：「ページ番号+3」のリンクを作成</t>
+  </si>
+  <si>
+    <t>currentPage=8, totalPages=12</t>
+  </si>
+  <si>
+    <t>「11」（=8+3）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+4&lt;=総ページ数 &amp;&amp; ページ番号&lt;=3：「ページ番号+4」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「7」（=3+4）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+5&lt;=総ページ数 &amp;&amp; ページ番号&lt;=2：「ページ番号+5」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「7」（=2+5）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+6&lt;=総ページ数 &amp;&amp; ページ番号&lt;=1：「ページ番号+6」のリンクを作成</t>
+  </si>
+  <si>
+    <t>「7」（=1+6）のリンクが表示される</t>
+  </si>
+  <si>
+    <t>ページ番号+4&lt;=総ページ数 &amp;&amp; ページ番号&lt;=3：「...」を作成</t>
+  </si>
+  <si>
+    <t>ページ番号&lt;総ページ数：次のページのリンク「&gt;」を作成</t>
+  </si>
+  <si>
+    <t>「&gt;」が表示される</t>
+  </si>
+  <si>
+    <t>ページ番号&lt;総ページ数-1：最後ページのリンク「&gt;|」を作成</t>
+  </si>
+  <si>
+    <t>「&gt;|」が表示される</t>
+  </si>
+  <si>
+    <t>3. テスト実施環境</t>
   </si>
   <si>
     <t>currentPage=1, totalPages=10</t>
-  </si>
-  <si>
-    <t>`[1] 2 3 4 5 6 7 ... &gt; &gt;</t>
-  </si>
-  <si>
-    <t>PAGE-TC-015</t>
-  </si>
-  <si>
-    <t>10ページ中の5ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=5, totalPages=10</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 2 3 4 [5] 6 7 8 ... &gt; &gt;</t>
-  </si>
-  <si>
-    <t>PAGE-TC-016</t>
-  </si>
-  <si>
-    <t>10ページ中の8ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=8, totalPages=10</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 5 6 7 [8] 9 10 &gt; &gt;</t>
-  </si>
-  <si>
-    <t>PAGE-TC-017</t>
-  </si>
-  <si>
-    <t>10ページ中の10ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=10, totalPages=10</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 7 8 9 [10]`</t>
-  </si>
-  <si>
-    <t>PAGE-TC-018</t>
-  </si>
-  <si>
-    <t>20ページ中の1ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=1, totalPages=20</t>
-  </si>
-  <si>
-    <t>PAGE-TC-019</t>
-  </si>
-  <si>
-    <t>20ページ中の7ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=7, totalPages=20</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 4 5 6 [7] 8 9 10 ... &gt; &gt;</t>
-  </si>
-  <si>
-    <t>PAGE-TC-020</t>
-  </si>
-  <si>
-    <t>20ページ中の15ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=15, totalPages=20</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 12 13 14 [15] 16 17 18 ... &gt; &gt;</t>
-  </si>
-  <si>
-    <t>PAGE-TC-021</t>
-  </si>
-  <si>
-    <t>20ページ中の18ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=18, totalPages=20</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 15 16 17 [18] 19 20 &gt; &gt;</t>
-  </si>
-  <si>
-    <t>PAGE-TC-022</t>
-  </si>
-  <si>
-    <t>20ページ中の20ページ目</t>
-  </si>
-  <si>
-    <t>currentPage=20, totalPages=20</t>
-  </si>
-  <si>
-    <t>&lt; &lt; ... 17 18 19 [20]`</t>
-  </si>
-  <si>
-    <t>判定条件別テスト</t>
-  </si>
-  <si>
-    <t>以下の表は、仕様書に記載されている各判定条件に対するテスト結果を示しています。</t>
-  </si>
-  <si>
-    <t>判定条件</t>
-  </si>
-  <si>
-    <t>テストケースNo</t>
-  </si>
-  <si>
-    <t>テストケース条件</t>
-  </si>
-  <si>
-    <t>期待される要素</t>
-  </si>
-  <si>
-    <t>判定</t>
-  </si>
-  <si>
-    <t>ページ番号&gt;2</t>
-  </si>
-  <si>
-    <t>currentPage=3, totalPages=10</t>
-  </si>
-  <si>
-    <t>最初ページのリンク「|&lt;」が表示される</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ページ番号&gt;1</t>
-  </si>
-  <si>
-    <t>前のページのリンク「&lt;」が表示される</t>
-  </si>
-  <si>
-    <t>ページ番号&gt;4 &amp;&amp; 総ページ数&gt;7</t>
-  </si>
-  <si>
-    <t>前方に「...」が表示される</t>
-  </si>
-  <si>
-    <t>総ページ数-ページ番号&lt;1 &amp;&amp; ページ番号&gt;=7</t>
-  </si>
-  <si>
-    <t>「ページ番号-6」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>総ページ数-ページ番号&lt;2 &amp;&amp; ページ番号&gt;=6</t>
-  </si>
-  <si>
-    <t>currentPage=19, totalPages=20</t>
-  </si>
-  <si>
-    <t>「ページ番号-5」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>総ページ数-ページ番号&lt;3 &amp;&amp; ページ番号&gt;=5</t>
-  </si>
-  <si>
-    <t>「ページ番号-4」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>ページ番号&gt;3</t>
-  </si>
-  <si>
-    <t>「ページ番号-3」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>currentPage=3, totalPages=5</t>
-  </si>
-  <si>
-    <t>「ページ番号-2」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>「ページ番号-1」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>条件なし</t>
-  </si>
-  <si>
-    <t>すべてのケース</t>
-  </si>
-  <si>
-    <t>「ページ番号」のラベルが表示される</t>
-  </si>
-  <si>
-    <t>ページ番号+1&lt;=総ページ数</t>
-  </si>
-  <si>
-    <t>「ページ番号+1」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>ページ番号+2&lt;=総ページ数</t>
-  </si>
-  <si>
-    <t>「ページ番号+2」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>ページ番号+3&lt;=総ページ数</t>
-  </si>
-  <si>
-    <t>currentPage=1, totalPages=5</t>
-  </si>
-  <si>
-    <t>「ページ番号+3」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>ページ番号+4&lt;=総ページ数 &amp;&amp; ページ番号&lt;=3</t>
-  </si>
-  <si>
-    <t>「ページ番号+4」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>ページ番号+5&lt;=総ページ数 &amp;&amp; ページ番号&lt;=2</t>
-  </si>
-  <si>
-    <t>currentPage=2, totalPages=10</t>
-  </si>
-  <si>
-    <t>「ページ番号+5」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>ページ番号+6&lt;=総ページ数 &amp;&amp; ページ番号&lt;=1</t>
-  </si>
-  <si>
-    <t>「ページ番号+6」のリンクが表示される</t>
-  </si>
-  <si>
-    <t>後方に「...」が表示される</t>
-  </si>
-  <si>
-    <t>ページ番号&lt;総ページ数</t>
-  </si>
-  <si>
-    <t>次のページのリンク「&gt;」が表示される</t>
-  </si>
-  <si>
-    <t>ページ番号&lt;総ページ数-1</t>
-  </si>
-  <si>
-    <t>最後ページのリンク「&gt;|」が表示される</t>
-  </si>
-  <si>
-    <t>テスト実施環境</t>
-  </si>
-  <si>
-    <t>項目</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>テスト実施日</t>
-  </si>
-  <si>
-    <t>YYYY/MM/DD</t>
-  </si>
-  <si>
-    <t>テスト実施者</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>検証環境</t>
-  </si>
-  <si>
-    <t>Windows 10 / Google Chrome 最新版</t>
-  </si>
-  <si>
-    <t>テスト結果</t>
-  </si>
-  <si>
-    <t>□合格　□不合格</t>
-  </si>
-  <si>
-    <t>備考</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状況</t>
+  </si>
+  <si>
+    <t>入力条件 (P, T)</t>
+  </si>
+  <si>
+    <t>预期输出</t>
+  </si>
+  <si>
+    <t>P=1, T=1</t>
+  </si>
+  <si>
+    <t>P=1, T=2</t>
+  </si>
+  <si>
+    <t>P=2, T=2</t>
+  </si>
+  <si>
+    <t>P=1, T=3</t>
+  </si>
+  <si>
+    <t>P=2, T=3</t>
+  </si>
+  <si>
+    <t>P=3, T=3</t>
+  </si>
+  <si>
+    <t>P=1, T=7</t>
+  </si>
+  <si>
+    <t>ユーザーの具体例1</t>
+  </si>
+  <si>
+    <t>P=3, T=10</t>
+  </si>
+  <si>
+    <t>|&lt; &lt; 1 2 [3] 4 5 6 7 ... &gt; &gt;|</t>
+  </si>
+  <si>
+    <t>ユーザーの具体例2</t>
+  </si>
+  <si>
+    <t>P=4, T=10</t>
+  </si>
+  <si>
+    <t>|&lt; &lt; ... 1 2 3 [4] 5 6 7 ... &gt; &gt;|</t>
   </si>
 </sst>
 </file>
@@ -1433,13 +1653,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09D327-F28F-5442-BDEC-17CB93842753}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E15:E16"/>
+    <sheetView topLeftCell="A5" zoomScale="158" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" bestFit="1" customWidth="1"/>
@@ -1458,24 +1678,24 @@
     </row>
     <row r="5" spans="1:6" ht="24">
       <c r="A5" s="3" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>3</v>
@@ -1486,19 +1706,19 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" t="s">
         <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16">
@@ -1506,19 +1726,19 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" t="s">
         <v>70</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>71</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" t="s">
         <v>73</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16">
@@ -1526,19 +1746,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" t="s">
         <v>78</v>
-      </c>
-      <c r="F10" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16">
@@ -1546,19 +1766,19 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>81</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" t="s">
         <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16">
@@ -1566,19 +1786,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>86</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" t="s">
         <v>88</v>
-      </c>
-      <c r="F12" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16">
@@ -1586,19 +1806,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
         <v>90</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>91</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" t="s">
         <v>93</v>
-      </c>
-      <c r="F13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16">
@@ -1606,19 +1826,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" t="s">
         <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1626,19 +1846,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
         <v>100</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>101</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>102</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>103</v>
-      </c>
-      <c r="F15" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1646,19 +1866,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
         <v>105</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>106</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
         <v>107</v>
-      </c>
-      <c r="E16" t="s">
-        <v>103</v>
-      </c>
-      <c r="F16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="16">
@@ -1666,19 +1886,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" t="s">
         <v>109</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>110</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" t="s">
         <v>112</v>
-      </c>
-      <c r="F17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1686,19 +1906,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
         <v>114</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>115</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
         <v>116</v>
-      </c>
-      <c r="E18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1706,19 +1926,19 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19" t="s">
         <v>118</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>119</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
         <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1726,19 +1946,19 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" t="s">
         <v>122</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>123</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
         <v>124</v>
-      </c>
-      <c r="E20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1746,19 +1966,19 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" t="s">
         <v>126</v>
       </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
       <c r="D21" t="s">
+        <v>277</v>
+      </c>
+      <c r="E21" t="s">
         <v>128</v>
       </c>
-      <c r="E21" t="s">
-        <v>129</v>
-      </c>
       <c r="F21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1766,19 +1986,19 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
         <v>130</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>131</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
         <v>132</v>
-      </c>
-      <c r="E22" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1786,19 +2006,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" t="s">
         <v>134</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>135</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
         <v>136</v>
-      </c>
-      <c r="E23" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1806,19 +2026,19 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
         <v>138</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>139</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
         <v>140</v>
-      </c>
-      <c r="E24" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1826,19 +2046,19 @@
         <v>18</v>
       </c>
       <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
         <v>142</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>143</v>
       </c>
-      <c r="D25" t="s">
-        <v>144</v>
-      </c>
       <c r="E25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1846,19 +2066,19 @@
         <v>19</v>
       </c>
       <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
         <v>145</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>146</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
         <v>147</v>
-      </c>
-      <c r="E26" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1866,19 +2086,19 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" t="s">
         <v>149</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>150</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
         <v>151</v>
-      </c>
-      <c r="E27" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1886,19 +2106,19 @@
         <v>21</v>
       </c>
       <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
         <v>153</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>154</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
         <v>155</v>
-      </c>
-      <c r="E28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1906,49 +2126,49 @@
         <v>22</v>
       </c>
       <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
         <v>157</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>158</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
         <v>159</v>
-      </c>
-      <c r="E29" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="24">
       <c r="A31" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1956,19 +2176,19 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" t="s">
         <v>168</v>
       </c>
-      <c r="C36" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>169</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>170</v>
-      </c>
-      <c r="F36" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1976,19 +2196,19 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
         <v>172</v>
       </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" t="s">
-        <v>173</v>
-      </c>
       <c r="F37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1996,19 +2216,19 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
+        <v>173</v>
+      </c>
+      <c r="C38" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" t="s">
         <v>174</v>
       </c>
-      <c r="C38" t="s">
-        <v>130</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="E38" t="s">
-        <v>175</v>
-      </c>
       <c r="F38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2016,19 +2236,19 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
         <v>176</v>
       </c>
-      <c r="C39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" t="s">
-        <v>159</v>
-      </c>
-      <c r="E39" t="s">
-        <v>177</v>
-      </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2036,19 +2256,19 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" t="s">
         <v>178</v>
       </c>
-      <c r="C40" t="s">
-        <v>153</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>179</v>
       </c>
-      <c r="E40" t="s">
-        <v>180</v>
-      </c>
       <c r="F40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2056,19 +2276,19 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" t="s">
+        <v>148</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" t="s">
         <v>181</v>
       </c>
-      <c r="C41" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" t="s">
-        <v>182</v>
-      </c>
       <c r="F41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2076,19 +2296,19 @@
         <v>7</v>
       </c>
       <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
         <v>183</v>
       </c>
-      <c r="C42" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" t="s">
-        <v>184</v>
-      </c>
       <c r="F42" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2096,19 +2316,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
+        <v>184</v>
+      </c>
+      <c r="E43" t="s">
         <v>185</v>
       </c>
-      <c r="E43" t="s">
-        <v>186</v>
-      </c>
       <c r="F43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2116,19 +2336,19 @@
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F44" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2136,19 +2356,19 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" t="s">
         <v>188</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" t="s">
         <v>189</v>
       </c>
-      <c r="D45" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" t="s">
-        <v>190</v>
-      </c>
       <c r="F45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2156,19 +2376,19 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46" t="s">
+        <v>84</v>
+      </c>
+      <c r="D46" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" t="s">
         <v>191</v>
       </c>
-      <c r="C46" t="s">
-        <v>85</v>
-      </c>
-      <c r="D46" t="s">
-        <v>87</v>
-      </c>
-      <c r="E46" t="s">
-        <v>192</v>
-      </c>
       <c r="F46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2176,19 +2396,19 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
+        <v>192</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
         <v>193</v>
       </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>82</v>
-      </c>
-      <c r="E47" t="s">
-        <v>194</v>
-      </c>
       <c r="F47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2196,19 +2416,19 @@
         <v>13</v>
       </c>
       <c r="B48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
         <v>195</v>
       </c>
-      <c r="C48" t="s">
-        <v>95</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>196</v>
       </c>
-      <c r="E48" t="s">
-        <v>197</v>
-      </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2216,19 +2436,19 @@
         <v>14</v>
       </c>
       <c r="B49" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" t="s">
         <v>198</v>
       </c>
-      <c r="C49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" t="s">
-        <v>199</v>
-      </c>
       <c r="F49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2236,19 +2456,19 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
         <v>200</v>
       </c>
-      <c r="C50" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>201</v>
       </c>
-      <c r="E50" t="s">
-        <v>202</v>
-      </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2256,19 +2476,19 @@
         <v>16</v>
       </c>
       <c r="B51" t="s">
+        <v>202</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="E51" t="s">
         <v>203</v>
       </c>
-      <c r="C51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" t="s">
-        <v>204</v>
-      </c>
       <c r="F51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2276,19 +2496,19 @@
         <v>17</v>
       </c>
       <c r="B52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F52" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2296,19 +2516,19 @@
         <v>18</v>
       </c>
       <c r="B53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" t="s">
+        <v>86</v>
+      </c>
+      <c r="E53" t="s">
         <v>206</v>
       </c>
-      <c r="C53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" t="s">
-        <v>207</v>
-      </c>
       <c r="F53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2316,69 +2536,1088 @@
         <v>19</v>
       </c>
       <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" t="s">
         <v>208</v>
       </c>
-      <c r="C54" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" t="s">
-        <v>209</v>
-      </c>
       <c r="F54" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="24">
       <c r="A56" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>211</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>212</v>
+      </c>
+      <c r="B59" t="s">
         <v>213</v>
-      </c>
-      <c r="B59" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
         <v>215</v>
-      </c>
-      <c r="B60" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
+        <v>216</v>
+      </c>
+      <c r="B61" t="s">
         <v>217</v>
-      </c>
-      <c r="B61" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
+        <v>218</v>
+      </c>
+      <c r="B62" t="s">
         <v>219</v>
-      </c>
-      <c r="B62" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>221</v>
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A949ECDC-C3A0-6A4B-844D-603F1BBD6692}">
+  <dimension ref="A1:F56"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" zoomScale="137" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="75.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="24">
+      <c r="A3" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" t="s">
+        <v>227</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" t="s">
+        <v>230</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>235</v>
+      </c>
+      <c r="D24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="24">
+      <c r="A26" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>242</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s">
+        <v>174</v>
+      </c>
+      <c r="F31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>178</v>
+      </c>
+      <c r="E32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" t="s">
+        <v>247</v>
+      </c>
+      <c r="F33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>250</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" t="s">
+        <v>251</v>
+      </c>
+      <c r="F35" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>252</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" t="s">
+        <v>253</v>
+      </c>
+      <c r="F36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>258</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>261</v>
+      </c>
+      <c r="F40" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>262</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" t="s">
+        <v>263</v>
+      </c>
+      <c r="E41" t="s">
+        <v>264</v>
+      </c>
+      <c r="F41" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>265</v>
+      </c>
+      <c r="C42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>267</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>270</v>
+      </c>
+      <c r="F44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>271</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" t="s">
+        <v>204</v>
+      </c>
+      <c r="F45" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>272</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>233</v>
+      </c>
+      <c r="E46" t="s">
+        <v>273</v>
+      </c>
+      <c r="F46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>274</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="24">
+      <c r="A49" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>218</v>
+      </c>
+      <c r="B55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678AD5D2-9BE2-C143-BF62-2EB05C75050B}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C10" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>
